--- a/spc/results/t01/M_0.30_k_0.05/omp_CLEAN/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.05/omp_CLEAN/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -840,626 +840,6 @@
         <v>197.9924355732585</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>196.000465680051</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>194.1901635672893</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>192.362934028197</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>190.5145846817852</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>188.695222464792</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>186.6595782196788</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>184.7133378109653</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>182.9115351661748</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>180.9200829715887</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>179.1316336631232</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>177.5492475644973</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>175.7917363325429</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>174.0361748473396</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>172.35724497602</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>170.9053965671932</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>169.4372861796506</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>167.8980889830445</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>166.4085654117893</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>164.866178078905</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>163.4527760574319</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>161.9692776450652</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>160.5295883501566</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>158.973102012968</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>157.4513533671006</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>156.1020119847337</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>154.6929808916306</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>153.3817680200126</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>152.054294307802</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>150.7026237795342</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>149.2336245948716</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>147.8804291317442</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>146.4868020836913</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>145.1295621318412</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>143.8031682587412</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>142.5070960498588</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>141.2447825281236</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>140.0370279343142</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>138.9279388933989</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>137.8136766586662</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>136.6380095976108</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>135.4051826641924</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>134.1766321277101</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>133.2078623615801</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>132.0704639853714</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>131.1147766935482</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>130.0936513298823</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>129.1746754286725</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128.2831311599761</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>127.3174171547639</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>126.3755412224703</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>125.3277755287777</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>124.4039532780674</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>123.5344427679861</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>122.6631129412287</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>121.7856455278127</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>120.8571696696066</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>119.9761347986751</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>119.1059013604615</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>118.2369542335381</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>117.3908375100214</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>116.4487093996653</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>115.6802962748609</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>114.9010219072334</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>114.1391294794374</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>113.3862344503794</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>112.6853790513649</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>111.8756628371875</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>111.2324777094256</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>110.4309447789068</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>109.7038692322541</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>108.9062664495432</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>108.1564985332572</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>107.4236524000978</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>106.770303522096</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>106.05927932055</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>105.255424827409</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>104.5997556390561</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>103.9509823193326</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>103.26687326009</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>102.553225326444</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>101.8390389519169</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>101.10594513538</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>100.3484507477928</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>99.59142680443347</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>98.78796130545444</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>98.15404488803136</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>97.48119953635592</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>96.87018838556828</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>96.18630169295332</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>95.53731252645346</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>94.92243719254887</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>94.35131409693172</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>93.75613767417516</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>93.11710880993429</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>92.49728890869565</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>91.88236294770196</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>91.30388856972769</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>90.72635758367699</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>90.21144630735823</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>89.6456740569559</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>89.15057705787694</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>88.59962558906307</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>87.97139098375253</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>87.36106227229878</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>86.82604271167023</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>86.28963780852645</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>85.78594058899448</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>85.27927030770849</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>84.72129724396989</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>84.23472093096818</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>83.775676607408</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>83.29210366309559</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>82.81991548335037</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>82.3197724018119</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>81.74976704619478</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>81.29494302641692</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>80.82406784587151</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>80.32833603571433</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>79.84735888620312</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>79.40516368861032</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>78.92575100207755</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>78.50446918849563</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>78.08704987435122</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>77.62482415432159</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
